--- a/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.35</t>
+          <t>15.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>95.05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.86</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.82</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.82</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>98.08</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>81.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.54</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>95.07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.79</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.87</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.79</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -772,15 +872,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.88</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,400 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1541,4 +1542,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1550,7 +1551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,17 +1562,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1581,14 +1602,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -1597,14 +1692,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -1613,14 +1708,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1629,13 +1724,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1645,7 +1646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1656,17 +1657,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1676,14 +1697,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1692,14 +1735,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.89</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
@@ -1708,14 +1841,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -1724,14 +1857,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1740,13 +1873,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1778,7 +1779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,17 +1790,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1809,14 +1830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.47</v>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1825,14 +1868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1841,14 +1906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.89</v>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1857,14 +1944,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1873,14 +1982,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.42</v>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1889,13 +2020,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.89</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>483003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>工银精选平衡混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>15.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.60</t>
+          <t>65.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4040</t>
+          <t>0.3945</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>81.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0587</t>
+          <t>0.3552</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -732,32 +749,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0489</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009649</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合A</t>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519117</t>
+          <t>008629</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浦银安盛基本面400指数</t>
+          <t>大成景瑞稳健配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>008630</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
+          <t>大成景瑞稳健配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009650</t>
+          <t>015678</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合C</t>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -922,6 +939,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1147,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1543,7 +1882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1789,7 +2128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1997,7 +2336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600820-隧道股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.49</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.89</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,280 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +946,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.78</t>
+          <t>16.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.64</t>
+          <t>66.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3945</t>
+          <t>0.4213</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +974,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.96</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3552</t>
+          <t>0.0443</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1012,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0489</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -787,32 +1050,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）A</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -835,26 +1098,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.44</t>
+          <t>29.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1126,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008630</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成景瑞稳健配置混合C</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.44</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1164,264 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>015678</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>鹏华中证高铁产业指数（LOF）C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -995,36 +1486,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>483003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>工银精选平衡混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>15.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.60</t>
+          <t>65.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4040</t>
+          <t>0.3945</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1033,36 +1524,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>81.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0587</t>
+          <t>0.3552</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1071,32 +1562,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0489</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1109,36 +1600,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009649</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合A</t>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1147,36 +1638,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519117</t>
+          <t>008629</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浦银安盛基本面400指数</t>
+          <t>大成景瑞稳健配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1185,36 +1676,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>008630</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
+          <t>大成景瑞稳健配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1223,36 +1714,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009650</t>
+          <t>015678</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合C</t>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1261,6 +1752,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1392,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1486,7 +2299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1882,7 +2695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2128,7 +2941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2334,250 +3147,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2709</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1391</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0629</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0384</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>